--- a/results/signalcount.xlsx
+++ b/results/signalcount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\grad\ECS235A\typosquatting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349A1F20-D8AD-4227-AFC4-E16EFC06A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6937F38-F350-4380-A465-50DCB804FE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEC83796-3710-46F7-83BA-DFEB6D492C74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Character Replaced</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>TYPOMIND</t>
+  </si>
+  <si>
+    <t>OVERLAPS WITHOUT PS</t>
+  </si>
+  <si>
+    <t>alternate spelling</t>
   </si>
 </sst>
 </file>
@@ -290,6 +296,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -309,6 +320,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -328,6 +344,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -347,6 +368,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -366,6 +392,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -385,6 +416,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -406,6 +442,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -427,6 +468,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -448,6 +494,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -469,6 +520,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -490,6 +546,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -511,6 +572,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -533,6 +599,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -555,6 +626,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -577,6 +653,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -599,6 +680,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -621,6 +707,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -643,6 +734,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -664,6 +760,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -685,6 +786,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-4CF4-4288-88FB-593B77DA7EA2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1111,6 +1217,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1130,6 +1241,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1149,6 +1265,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1168,6 +1289,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1187,6 +1313,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1206,6 +1337,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1227,6 +1363,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1248,6 +1389,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1269,6 +1415,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-5A6E-4F59-8233-EC7255DAFB20}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1697,9 +1848,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$26:$A$34</c:f>
+              <c:f>Sheet1!$A$26:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>homophonic similarity</c:v>
                 </c:pt>
@@ -1726,16 +1877,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>sequence reordering</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>alternate spelling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:f>Sheet1!$B$26:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>944</c:v>
                 </c:pt>
@@ -1762,6 +1916,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,9 +2016,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$26:$A$34</c:f>
+              <c:f>Sheet1!$A$26:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>homophonic similarity</c:v>
                 </c:pt>
@@ -1888,16 +2045,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>sequence reordering</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>alternate spelling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$C$34</c:f>
+              <c:f>Sheet1!$C$26:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>180</c:v>
                 </c:pt>
@@ -1924,6 +2084,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,6 +2199,620 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="91569199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Overlaps Without PS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>homophonic similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prefix/ suffix augmentation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grammatical substitution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>simplification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>semantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>delimiter modification</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>homographic replacement</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>asemantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sequence reordering</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>alternate spelling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F5A-44D8-9793-0B3D53D4B59A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OG Overlap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>homophonic similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prefix/ suffix augmentation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grammatical substitution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>simplification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>semantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>delimiter modification</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>homographic replacement</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>asemantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sequence reordering</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>alternate spelling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F5A-44D8-9793-0B3D53D4B59A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1932659103"/>
+        <c:axId val="1932661503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1932659103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932661503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1932661503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1932659103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2256,6 +3033,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -4028,6 +4845,576 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4035,13 +5422,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130734</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4069,15 +5456,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>572993</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>299383</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39967</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4133,6 +5520,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3D2747-F700-4879-9293-78B93DF7A6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4458,10 +5881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED4DA6-8704-4115-B1C6-D82964D241C6}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="102" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,7 +6085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4670,7 +6093,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4678,7 +6101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4686,7 +6109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4694,7 +6117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4702,7 +6125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4711,20 +6134,29 @@
         <v>12284</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -4734,8 +6166,17 @@
       <c r="C26">
         <v>180</v>
       </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>944</v>
+      </c>
+      <c r="G26">
+        <v>168</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4745,8 +6186,17 @@
       <c r="C27">
         <v>2235</v>
       </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>5206</v>
+      </c>
+      <c r="G27">
+        <v>267</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4756,8 +6206,17 @@
       <c r="C28">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4767,8 +6226,17 @@
       <c r="C29">
         <v>138</v>
       </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>362</v>
+      </c>
+      <c r="G29">
+        <v>137</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -4778,8 +6246,17 @@
       <c r="C30">
         <v>67</v>
       </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>331</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4789,8 +6266,17 @@
       <c r="C31">
         <v>13</v>
       </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>22</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4800,8 +6286,17 @@
       <c r="C32">
         <v>44</v>
       </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>44</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -4811,8 +6306,17 @@
       <c r="C33">
         <v>243</v>
       </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>1433</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -4821,6 +6325,35 @@
       </c>
       <c r="C34">
         <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/signalcount.xlsx
+++ b/results/signalcount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\grad\ECS235A\typosquatting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6937F38-F350-4380-A465-50DCB804FE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5B997-852E-4DB4-8308-C1348B66F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEC83796-3710-46F7-83BA-DFEB6D492C74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Character Replaced</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>alternate spelling</t>
+  </si>
+  <si>
+    <t>Scope confusion</t>
   </si>
 </sst>
 </file>
@@ -1706,13 +1709,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1738,13 +1747,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1776,20 +1791,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1807,9 +1844,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1834,9 +1873,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1944,20 +1983,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1975,9 +2036,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2002,9 +2065,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2106,7 +2169,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="91569199"/>
         <c:axId val="91567279"/>
       </c:barChart>
@@ -2123,11 +2187,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2139,11 +2203,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2166,29 +2229,17 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2198,6 +2249,32 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="91569199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2214,12 +2291,7 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2232,9 +2304,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2254,30 +2325,25 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2320,13 +2386,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2334,7 +2406,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Overlaps Without PS</a:t>
+              <a:t>Overlaps Without PS (PYPI)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2352,13 +2424,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2390,20 +2468,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2421,9 +2521,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2448,9 +2550,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2558,20 +2660,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2589,9 +2713,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2616,9 +2742,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2720,7 +2846,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="1932659103"/>
         <c:axId val="1932661503"/>
       </c:barChart>
@@ -2737,11 +2864,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2753,11 +2880,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2780,29 +2906,17 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2812,6 +2926,32 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1932659103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2828,12 +2968,7 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2846,9 +2981,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2868,30 +3002,714 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PAPER OVERLAPS (NPM)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>homophonic similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prefix/ suffix augmentation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grammatical substitution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>simplification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>semantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>delimiter modification</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>homographic replacement</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>asemantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sequence reordering</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>alternate spelling</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Scope confusion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>24735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE67-482E-B2B5-A04063CA5555}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OG Overlap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>homophonic similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prefix/ suffix augmentation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grammatical substitution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>simplification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>semantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>delimiter modification</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>homographic replacement</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>asemantic substitution</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sequence reordering</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>alternate spelling</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Scope confusion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$11:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE67-482E-B2B5-A04063CA5555}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1959841103"/>
+        <c:axId val="1959837743"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1959841103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959837743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1959837743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959841103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3073,6 +3891,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -4276,41 +5134,39 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -4323,149 +5179,113 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -4473,10 +5293,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4492,17 +5312,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4514,20 +5333,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4538,14 +5357,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -4557,14 +5376,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4576,7 +5394,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4584,28 +5402,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4615,28 +5421,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4645,14 +5439,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -4664,14 +5458,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4682,19 +5476,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -4702,7 +5487,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -4710,7 +5495,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4718,17 +5503,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4741,14 +5525,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4760,12 +5544,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4774,7 +5565,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -4789,9 +5580,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4801,7 +5591,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4809,9 +5599,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4822,16 +5612,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4839,48 +5623,46 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -4893,149 +5675,113 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -5043,10 +5789,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5062,17 +5808,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5084,20 +5829,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5108,14 +5853,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -5127,14 +5872,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5146,7 +5890,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -5154,28 +5898,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -5185,28 +5917,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5215,14 +5935,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -5234,14 +5954,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5252,19 +5972,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -5272,7 +5983,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -5280,7 +5991,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5288,17 +5999,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5311,14 +6021,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5330,12 +6040,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5344,7 +6061,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -5359,9 +6076,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5371,7 +6087,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5379,9 +6095,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5392,16 +6108,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5409,7 +6119,503 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5419,16 +6625,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95308</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>130734</xdr:rowOff>
+      <xdr:rowOff>115690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5455,16 +6661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>572993</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>145769</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>140796</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>299383</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>39967</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>552391</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163711</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5556,6 +6762,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114511</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165755</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2320CE-7242-A6CB-C184-8B5F7735D13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5881,10 +7123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED4DA6-8704-4115-B1C6-D82964D241C6}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="102" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="64" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5894,9 +7136,12 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -5904,7 +7149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5918,7 +7163,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5932,7 +7177,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5946,7 +7191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5960,7 +7205,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5974,7 +7219,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5988,7 +7233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6002,7 +7247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6016,7 +7261,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6029,8 +7274,14 @@
       <c r="F10">
         <v>14</v>
       </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6044,88 +7295,187 @@
         <f>SUM(F2:F10)</f>
         <v>8395</v>
       </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>24735</v>
+      </c>
+      <c r="J11">
+        <v>2680</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>143864</v>
+      </c>
+      <c r="J12">
+        <v>1484</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>411</v>
       </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>2461</v>
+      </c>
+      <c r="J13">
+        <v>1084</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>52</v>
       </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>27743</v>
+      </c>
+      <c r="J14">
+        <v>792</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>132</v>
       </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>9610</v>
+      </c>
+      <c r="J15">
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>61</v>
       </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>7178</v>
+      </c>
+      <c r="J16">
+        <v>847</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>193</v>
       </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>2393</v>
+      </c>
+      <c r="J17">
+        <v>1913</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>139160</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>115</v>
       </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>1734</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>4247</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6134,7 +7484,7 @@
         <v>12284</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6142,7 +7492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -6156,7 +7506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -6176,7 +7526,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -6196,7 +7546,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -6216,7 +7566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -6236,7 +7586,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -6256,7 +7606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6276,7 +7626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
